--- a/Data/Document/SAULAB_TESTCASE.xlsx
+++ b/Data/Document/SAULAB_TESTCASE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORKING\Library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AUTOMATION_PROJECTS\SelecniumLibrary\Data\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8255151-0A7A-444A-B887-50D8B5B84CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249C86D3-1FB7-42B2-8BEC-6EDD70A539AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="502" xr2:uid="{1772CC95-BC19-4E9D-B84A-ACA20A96803D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="502" activeTab="2" xr2:uid="{1772CC95-BC19-4E9D-B84A-ACA20A96803D}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -770,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A8022D4-7AAD-4B94-8EA2-CBD86160A61F}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -947,7 +947,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="A5" sqref="A5:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1211,8 +1211,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03D9FCE-969B-4DC8-968F-869F2D685173}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
